--- a/data/trans_bre/P15A-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P15A-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.456556784492121</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.618223874316725</v>
+        <v>2.618223874316726</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4188287024421249</v>
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.354907359627982</v>
+        <v>-0.3711939118596803</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.9125312009094491</v>
+        <v>-0.6595092643206077</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.390665812280301</v>
+        <v>-0.2506293945199324</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.194560230404371</v>
+        <v>1.172241720978498</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1600372958594329</v>
+        <v>-0.1358054907329726</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2671015792612841</v>
+        <v>-0.2153586290352595</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1133765830864437</v>
+        <v>-0.1105052811249233</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.338395599438411</v>
+        <v>0.3384290262536905</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.335191878238982</v>
+        <v>2.438372127478886</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.14296625148975</v>
+        <v>2.249443140949415</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.139517327960669</v>
+        <v>3.225677131608368</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.106347255103812</v>
+        <v>4.131511959797654</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.355764294628618</v>
+        <v>1.448937471633411</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.23531101814443</v>
+        <v>1.256359859038599</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.563224103809222</v>
+        <v>1.55060845524487</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.549994556837555</v>
+        <v>2.546267156943241</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-1.003944161495867</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.4390252956903526</v>
+        <v>-0.4390252956903529</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.5238876117676913</v>
@@ -749,7 +749,7 @@
         <v>-0.3877898761223133</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.1766301825075277</v>
+        <v>-0.1766301825075279</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.763384562903568</v>
+        <v>-3.836474581404213</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.928231068510341</v>
+        <v>-1.97553742215928</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.906211332415373</v>
+        <v>-1.837195561426317</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.406259227353001</v>
+        <v>-1.482619634239291</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6868007269772228</v>
+        <v>-0.6910415351046179</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.520421142134908</v>
+        <v>-0.5282145453649549</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6142952314188556</v>
+        <v>-0.6073718561011888</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4526234782282543</v>
+        <v>-0.4721227069465303</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-1.14342563310298</v>
+        <v>-1.226610755373546</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2716149490449479</v>
+        <v>0.1251019036663072</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-0.1094762929139077</v>
+        <v>-0.01859053637770636</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5983024626757121</v>
+        <v>0.5919008417201262</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.273507040439323</v>
+        <v>-0.3055386345405346</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1160493940320831</v>
+        <v>0.0599414558721071</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.02266622553468921</v>
+        <v>-0.0004943397244434986</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3375364518263423</v>
+        <v>0.3254083106072289</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.2426137634365118</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1511299076694679</v>
+        <v>0.1511299076694683</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.210360329300613</v>
@@ -849,7 +849,7 @@
         <v>0.1079409004189942</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.08905067236999704</v>
+        <v>0.08905067236999727</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.129769945561519</v>
+        <v>-3.269895203121624</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.00152622788526</v>
+        <v>-1.710021968888733</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.720943818361061</v>
+        <v>-1.600607581710787</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.565676712199765</v>
+        <v>-1.51300200556614</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6818344314658368</v>
+        <v>-0.6472835910236129</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5551066973729205</v>
+        <v>-0.4885219785588402</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.5697790804662979</v>
+        <v>-0.5270322659727881</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.5421633783625497</v>
+        <v>-0.5440974441330826</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.592651323505764</v>
+        <v>1.431286012614835</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.883522327922766</v>
+        <v>2.947920410428711</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.139727628182114</v>
+        <v>2.241425859972759</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.332791382373175</v>
+        <v>1.327108629989792</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.777466089738089</v>
+        <v>0.6076651098204419</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.64706096310936</v>
+        <v>1.744330007067788</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.889864211917622</v>
+        <v>1.93410034601543</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.582630644805012</v>
+        <v>1.330205054670119</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-0.10284868699749</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3470863917351102</v>
+        <v>0.3470863917351089</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.2609806728110414</v>
@@ -949,7 +949,7 @@
         <v>-0.03985762031841256</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1507698064652689</v>
+        <v>0.1507698064652683</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.863488035422201</v>
+        <v>-1.820263526764278</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.8619048571443135</v>
+        <v>-1.006686116692442</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.9218400228533007</v>
+        <v>-0.8839321704266717</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.3791782814386303</v>
+        <v>-0.4547259523521011</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4389529851420423</v>
+        <v>-0.4307174132605491</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2734398621096817</v>
+        <v>-0.3114571684378507</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3106586980128938</v>
+        <v>-0.3017293834815554</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1429943551598978</v>
+        <v>-0.162522597693472</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-0.07374099512268341</v>
+        <v>-0.1141873058886405</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6797807584338073</v>
+        <v>0.7245666428951424</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6536546700728698</v>
+        <v>0.6411212600234851</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.086948218769016</v>
+        <v>1.059658608669355</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.01360634543437068</v>
+        <v>-0.02272933965689299</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2787992729850096</v>
+        <v>0.2969187833023431</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2975167201237159</v>
+        <v>0.2958134036182878</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5956239323838877</v>
+        <v>0.5817789593493111</v>
       </c>
     </row>
     <row r="16">
